--- a/YouTubeData/ecxUsur_YLM.xlsx
+++ b/YouTubeData/ecxUsur_YLM.xlsx
@@ -481,72 +481,72 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>@MaverickTomcat69</t>
+          <t>@vitaman102</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>So I am guessing you also like being a) cut in front of b) kids dropping turds on the side walk c) unlimited buffets to name a few LOL</t>
+          <t>Be careful of what u eat in china , anything can be fake , gutter oil, fake eggs etc</t>
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>45519.99001157407</v>
+        <v>45524.2228125</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob消极</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>@风清扬-y8o</t>
+          <t>@VickyYadav-qj6kv</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>中肯的，一针见血的</t>
+          <t>Westerners nd there Media the amount of Negativity they can spread is just insane....it just bcz China doesn't follow what they believe.....I'm still trying to figure out why they want everyone to be like them.</t>
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45519.36605324074</v>
+        <v>45524.02962962963</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>SnowNLP消极</t>
+          <t>TextBlob中立</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>anger</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>@feline223</t>
+          <t>@俞剑宏</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Why is Starbucks literally the worst watered down coffee and yet white people still buys it?</t>
+          <t>why not clean</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45519.16873842593</v>
+        <v>45523.10982638889</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -558,23 +558,23 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>netural</t>
+          <t>joy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>@annspirit24</t>
+          <t>@BobYao-i4b</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>China is a beautiful land fir me its like a big castle inside of a hige forest ❤. So much nature in the city themself and so cheap also the prople ar so kind like family members</t>
+          <t>I'm a Chinese and what I want to say is our China really have too many places to travel. If ur afraid of crowds then u could go to places like Qinghai or Xinjiang, though the only problem is the bathroom haha. But there’s beautiful views there I promise.</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>45518.81350694445</v>
+        <v>45522.47246527778</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -586,51 +586,51 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>@TraditionalChineseClothing</t>
+          <t>@issavibez394</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Good POV</t>
+          <t>Theres crowds everywhere u go so it dont matter</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>45518.27168981481</v>
+        <v>45521.9991087963</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob中立</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>@lonewolfe2502</t>
+          <t>@MaverickTomcat69</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>She wants to travel at cheap price and want to complaint also. 😂</t>
+          <t>So I am guessing you also like being a) cut in front of b) kids dropping turds on the side walk c) unlimited buffets to name a few LOL</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>45517.40743055556</v>
+        <v>45519.99001157407</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -642,277 +642,277 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>@heisenberg3924</t>
+          <t>@风清扬-y8o</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>I heard p**n tourist…. Damn</t>
+          <t>中肯的，一针见血的</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>45517.09208333334</v>
+        <v>45519.36605324074</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>TextBlob中立</t>
+          <t>SnowNLP消极</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>@EricMarquez-km1ug</t>
+          <t>@feline223</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>China is amazing. Its like anywhere else. Dont go to basic places. Like going to america and going to nyc or california. Going to china and going to Shanghai or beijing its the same thing tourists tourists tourists.  Dalian was amazing go to dofferent places go see "real" china not tourist china.</t>
+          <t>Why is Starbucks literally the worst watered down coffee and yet white people still buys it?</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>45516.80267361111</v>
+        <v>45519.16873842593</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob消极</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>@Citizen994</t>
+          <t>@annspirit24</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Chin propaganda channel</t>
+          <t>China is a beautiful land fir me its like a big castle inside of a hige forest ❤. So much nature in the city themself and so cheap also the prople ar so kind like family members</t>
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>45516.17398148148</v>
+        <v>45518.81350694445</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>TextBlob消极</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
+          <t>@TraditionalChineseClothing</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Good POV</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>45518.27168981481</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>anticipation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>@lonewolfe2502</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>She wants to travel at cheap price and want to complaint also. 😂</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>45517.40743055556</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>@heisenberg3924</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>I heard p**n tourist…. Damn</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>45517.09208333334</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob中立</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>anger</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>@EricMarquez-km1ug</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>China is amazing. Its like anywhere else. Dont go to basic places. Like going to america and going to nyc or california. Going to china and going to Shanghai or beijing its the same thing tourists tourists tourists.  Dalian was amazing go to dofferent places go see "real" china not tourist china.</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>45516.80267361111</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>@Citizen994</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Chin propaganda channel</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>45516.17398148148</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob消极</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
           <t>@captainbanana1831</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>lol
 Clueless 
 ROFL</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C16" s="4" t="n">
         <v>45515.96266203704</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>netural</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>@rebelllionlad8049</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Misleading westerns u so funny</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>45515.82175925926</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>anger</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>@randomguy-rm1wf</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Omg to digital like robots</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>45515.15813657407</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob中立</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>netural</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>@Doumabigestsimp4life</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>China is a really beautiful place I’m chinesse and highly recommended it</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>45514.66767361111</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>joy</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>@cougarlove8542</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>They still wear mask? I see a few in the US airports. Most of the time they are wearing t-shirts that say; Low IQ!</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>45514.65275462963</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>anticipation</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>@Ottrond</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>wack sinophobic clickbait when you actually had an easy time and got a nice comfy starbucks</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>45514.52133101852</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>@jenyqiqi8507</t>
+          <t>@rebelllionlad8049</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Because singapore is the best than china in my opinion</t>
+          <t>Misleading westerns u so funny</t>
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>45512.60480324074</v>
+        <v>45515.82175925926</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -924,30 +924,30 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>netural</t>
+          <t>anger</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>@user-vc9dj6hj8e</t>
+          <t>@randomguy-rm1wf</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>💩💩💩</t>
+          <t>Omg to digital like robots</t>
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>45512.18050925926</v>
+        <v>45515.15813657407</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>emojis中立</t>
+          <t>TextBlob中立</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -959,51 +959,51 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>@peatpage4131</t>
+          <t>@Doumabigestsimp4life</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>No need ! Travel to Sydney , Australia.</t>
+          <t>China is a really beautiful place I’m chinesse and highly recommended it</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>45511.36493055556</v>
+        <v>45514.66767361111</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>TextBlob中立</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>netural</t>
+          <t>joy</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>@ASIAVISTA</t>
+          <t>@cougarlove8542</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Damn…I thought it was an airport…😮</t>
+          <t>They still wear mask? I see a few in the US airports. Most of the time they are wearing t-shirts that say; Low IQ!</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>45511.04935185185</v>
+        <v>45514.65275462963</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>TextBlob中立</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1015,19 +1015,19 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>@louiszhang3050</t>
+          <t>@Ottrond</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Growing up in China, the China I knew was a completely different country than just a decade ago. My mind was blown. It's an amazing place to visit. It gets a lot of negative media attention (some of which it deserves), but there's no country like it. The food, the culture, the vibes, the music, the shops, everything... sometimes being there feels like a fever dream lol. I love it.</t>
+          <t>wack sinophobic clickbait when you actually had an easy time and got a nice comfy starbucks</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>45510.04883101852</v>
+        <v>45514.52133101852</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1036,26 +1036,26 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>@ShouhuiGao</t>
+          <t>@jenyqiqi8507</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>I Love China</t>
+          <t>Because singapore is the best than china in my opinion</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>45506.38229166667</v>
+        <v>45512.60480324074</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
@@ -1064,82 +1064,82 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>joy</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>@johnlowell5905</t>
+          <t>@user-vc9dj6hj8e</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>So I guess going to China makes you say stupid things.</t>
+          <t>💩💩💩</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>45504.51004629629</v>
+        <v>45512.18050925926</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>TextBlob消极</t>
+          <t>emojis中立</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>@nightsurfer1</t>
+          <t>@peatpage4131</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>She sounded a bit like an entitled Karen doesn't she? Arrogant to claim that she might be the only foreigner there... So she quickly assumed that all of the Asians there Chinese and not from other Asian countries. Wow! Karen much?</t>
+          <t>No need ! Travel to Sydney , Australia.</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>45504.26210648148</v>
+        <v>45511.36493055556</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob中立</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>@黄yun风</t>
+          <t>@ASIAVISTA</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>….</t>
+          <t>Damn…I thought it was an airport…😮</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>45504.22115740741</v>
+        <v>45511.04935185185</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
@@ -1148,45 +1148,185 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>@albertarthurparsnips5141</t>
+          <t>@louiszhang3050</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>She looks quite unhappy, even miserable, tbh.</t>
+          <t>Growing up in China, the China I knew was a completely different country than just a decade ago. My mind was blown. It's an amazing place to visit. It gets a lot of negative media attention (some of which it deserves), but there's no country like it. The food, the culture, the vibes, the music, the shops, everything... sometimes being there feels like a fever dream lol. I love it.</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>45503.6537962963</v>
+        <v>45510.04883101852</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>TextBlob消极</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
+          <t>@ShouhuiGao</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>I Love China</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>45506.38229166667</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>joy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>@johnlowell5905</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>So I guess going to China makes you say stupid things.</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>45504.51004629629</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob消极</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>@nightsurfer1</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>She sounded a bit like an entitled Karen doesn't she? Arrogant to claim that she might be the only foreigner there... So she quickly assumed that all of the Asians there Chinese and not from other Asian countries. Wow! Karen much?</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>45504.26210648148</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>@黄yun风</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>….</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>45504.22115740741</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob中立</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>@albertarthurparsnips5141</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>She looks quite unhappy, even miserable, tbh.</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>45503.6537962963</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob消极</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>anger</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
           <t>@xinchen199</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>Where does the Chinese government get the money to build cities?
 The Finance Bureau registered many state-owned enterprises, issued bonds to the people with the government's reputation, deceived them into construction, and showed the world how powerful China is. They did not pay on time or even paid nothing but did not bear any responsibility. The people could not speak out. Some of them needed money for medical treatment, but they had no way to get it. I used to be proud of China's development until I went to China this year to visit my nearly 80-year-old father and found that a state-owned enterprise maliciously owed all his property of almost 2 million which should be enough for his future. I spent half a month contacting the local government, but no one answered the phone during working hours. I tried to publish this matter on the Chinese Internet, but it was deleted directly.
@@ -1194,183 +1334,43 @@
 From a Chinese who had loved China for many years.</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C32" s="4" t="n">
         <v>45503.59246527778</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="D32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>TextBlob积极</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>@brians9508</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>there is another reason that there are not a lot of foreign tourists - especially Western foreign tourists - they are not welcome in China.</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>45503.00425925926</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob消极</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>@cyrilm3496</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Frying voice is soooooo disturbing</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>45502.88300925926</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob消极</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>netural</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>@jimbrown4456</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Poor title</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>45501.95347222222</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob消极</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>@makuohua3071</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>If you think , you are in 21st Century than travels in China , its just magnificent And magic. Otherwise in case in 14th Century just go to U.S. and India Or Nepal 😜 to feel the best tourism .</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>45501.65283564815</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob积极</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>anticipation</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>@anonimosu7425</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>As a fellow southerner, avoid the north.</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>45501.45582175926</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>TextBlob中立</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>@ErikPT</t>
+          <t>@brians9508</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Your first mistake was going to Shanghai.. you should've gone to Changsha !</t>
+          <t>there is another reason that there are not a lot of foreign tourists - especially Western foreign tourists - they are not welcome in China.</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>45500.11387731481</v>
+        <v>45503.00425925926</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob消极</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -1382,51 +1382,51 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>@gsgteycscgwh</t>
+          <t>@cyrilm3496</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>how much do china pay to you for this ad?</t>
+          <t>Frying voice is soooooo disturbing</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>45499.66491898148</v>
+        <v>45502.88300925926</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob消极</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>netural</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>@苗晶</t>
+          <t>@jimbrown4456</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Welcome to China, in fact, many cities in China are very interesting, you can go to many cities to walk more</t>
+          <t>Poor title</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>45499.30006944444</v>
+        <v>45501.95347222222</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>TextBlob消极</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1438,72 +1438,72 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>@lena-yo-y</t>
+          <t>@makuohua3071</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>不容易啊，欢迎大家来中国玩呀🎉</t>
+          <t>If you think , you are in 21st Century than travels in China , its just magnificent And magic. Otherwise in case in 14th Century just go to U.S. and India Or Nepal 😜 to feel the best tourism .</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>45497.42548611111</v>
+        <v>45501.65283564815</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>SnowNLP积极</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>@whatevertoday51</t>
+          <t>@anonimosu7425</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>I am sick of Americans and Europeans complain in China people don't speak English.</t>
+          <t>As a fellow southerner, avoid the north.</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>45496.2687037037</v>
+        <v>45501.45582175926</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>TextBlob消极</t>
+          <t>TextBlob中立</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>fear</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>@minmin-jb1wg</t>
+          <t>@ErikPT</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Everyone has their own opinions, and you shouldn't tell people whether or not they should visit China. It's up to them to decide what they want to do. And by the way, your opinion doesn't really matter to anyone. So, please keep your senseless comments about China to yourself.</t>
+          <t>Your first mistake was going to Shanghai.. you should've gone to Changsha !</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>45494.63840277777</v>
+        <v>45500.11387731481</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -1515,91 +1515,91 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>anger</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>@Ahmadalbedaiwi</t>
+          <t>@gsgteycscgwh</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>why us should not travel to chinaaaaa. Say it like a man</t>
+          <t>how much do china pay to you for this ad?</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>45494.27209490741</v>
+        <v>45499.66491898148</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>TextBlob中立</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>netural</t>
+          <t>anticipation</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>@user-zx6fr6rx8w</t>
+          <t>@苗晶</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>上海人确实很多</t>
+          <t>Welcome to China, in fact, many cities in China are very interesting, you can go to many cities to walk more</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>45493.57945601852</v>
+        <v>45499.30006944444</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>SnowNLP积极</t>
+          <t>TextBlob积极</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>netural</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>@captaincabbagio</t>
+          <t>@lena-yo-y</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>how much they pay for this stuff?</t>
+          <t>不容易啊，欢迎大家来中国玩呀🎉</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>45493.47991898148</v>
+        <v>45497.42548611111</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>TextBlob积极</t>
+          <t>SnowNLP积极</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>anticipation</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
